--- a/ky/downloads/data-excel/5.2.1.1a.xlsx
+++ b/ky/downloads/data-excel/5.2.1.1a.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>в отделы судебно-медицинской экспертизы</t>
   </si>
@@ -526,11 +526,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -539,7 +537,7 @@
     <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -554,7 +552,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>23</v>
       </c>
@@ -576,7 +574,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -593,8 +591,9 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>24</v>
       </c>
@@ -643,8 +642,11 @@
       <c r="P4" s="13">
         <v>2022</v>
       </c>
+      <c r="Q4" s="13">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
@@ -666,8 +668,9 @@
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
     </row>
-    <row r="6" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -716,8 +719,11 @@
       <c r="P6" s="14">
         <v>1373</v>
       </c>
+      <c r="Q6" s="14">
+        <v>1209</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -763,8 +769,11 @@
       <c r="P7" s="16" t="s">
         <v>27</v>
       </c>
+      <c r="Q7" s="16" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="36" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
@@ -813,8 +822,11 @@
       <c r="P8" s="14">
         <v>117</v>
       </c>
+      <c r="Q8" s="14">
+        <v>373</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
@@ -863,8 +875,11 @@
       <c r="P9" s="14">
         <v>154</v>
       </c>
+      <c r="Q9" s="14">
+        <v>115</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
@@ -912,6 +927,9 @@
       </c>
       <c r="P10" s="15">
         <v>885</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>781</v>
       </c>
     </row>
   </sheetData>
